--- a/Final Presentation/presentation.xlsx
+++ b/Final Presentation/presentation.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinzi\OneDrive\Desktop\Airbnb Data Challenge\Airbnb-Data-Challenge\Final Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6DAC7-D9EA-4F73-9909-58258BB44563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B17CE9-B05D-4773-AA49-1A515E5D3AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1650" yWindow="1425" windowWidth="27480" windowHeight="15435" xr2:uid="{AA0403AE-A9B7-4D73-986F-AB4750644CA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{AA0403AE-A9B7-4D73-986F-AB4750644CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$59</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$60</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$58:$H$58</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$59:$H$59</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$61:$H$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>contact me</t>
   </si>
@@ -121,6 +130,21 @@
   <si>
     <t>6+ hour 2223</t>
   </si>
+  <si>
+    <t>Book It usage</t>
+  </si>
+  <si>
+    <t>Instant Book Usage</t>
+  </si>
+  <si>
+    <t>Contact Me usage</t>
+  </si>
+  <si>
+    <t>Inquiries to &lt;5 reviews listings</t>
+  </si>
+  <si>
+    <t>Inquiries to &gt;5 reviews listings</t>
+  </si>
 </sst>
 </file>
 
@@ -155,9 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,6 +1552,628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Inquiries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contact Me usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Inquiries to &lt;5 reviews listings</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inquiries to &gt;5 reviews listings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$59:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDF5-45F8-91E2-837E422A6AB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Book It usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Inquiries to &lt;5 reviews listings</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inquiries to &gt;5 reviews listings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$60:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDF5-45F8-91E2-837E422A6AB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Instant Book Usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Inquiries to &lt;5 reviews listings</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inquiries to &gt;5 reviews listings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$61:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDF5-45F8-91E2-837E422A6AB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="460137176"/>
+        <c:axId val="460139144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460137176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460139144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460139144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460137176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6666666666666666E-2"/>
+          <c:y val="0.85415026246719172"/>
+          <c:w val="0.9"/>
+          <c:h val="9.4923811606882472E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -1638,6 +2285,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
@@ -3188,6 +3875,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3297,6 +4487,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2431F837-ACE4-4EA3-ACDC-F943B3909C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3602,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40295087-4AAC-4664-8A4D-1C77859AD083}">
-  <dimension ref="C1:AB55"/>
+  <dimension ref="C1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48:K54"/>
+    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,7 +5253,7 @@
         <v>156.99999983499998</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>21</v>
       </c>
@@ -4048,7 +5274,7 @@
         <v>72.999999799999998</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>22</v>
       </c>
@@ -4069,7 +5295,7 @@
         <v>110.00000044000001</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>23</v>
       </c>
@@ -4090,7 +5316,7 @@
         <v>69.999999848000002</v>
       </c>
     </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>24</v>
       </c>
@@ -4111,7 +5337,7 @@
         <v>19.000000151999998</v>
       </c>
     </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>25</v>
       </c>
@@ -4132,7 +5358,7 @@
         <v>8.0000000129999993</v>
       </c>
     </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>26</v>
       </c>
@@ -4144,9 +5370,83 @@
         <v>437.00000008799998</v>
       </c>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
